--- a/faraday/data/temp_data.xlsx
+++ b/faraday/data/temp_data.xlsx
@@ -1,37 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+  <si>
+    <t>Magnetic Field voltage (V)</t>
+  </si>
+  <si>
+    <t>Magnetic Field Current (Amps)</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Sample (cm)</t>
+  </si>
+  <si>
+    <t>Min transmission angle</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Angle 1</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Angle 2</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Angle 3</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t>Angle 4</t>
+  </si>
+  <si>
+    <t>Value 4</t>
+  </si>
+  <si>
+    <t>Angle 5</t>
+  </si>
+  <si>
+    <t>Value 5</t>
+  </si>
+  <si>
+    <t>Angle 6</t>
+  </si>
+  <si>
+    <t>Value 6</t>
+  </si>
+  <si>
+    <t>Angle 7</t>
+  </si>
+  <si>
+    <t>Value 7</t>
+  </si>
+  <si>
+    <t>Angle 8</t>
+  </si>
+  <si>
+    <t>Value 8</t>
+  </si>
+  <si>
+    <t>Angle 9</t>
+  </si>
+  <si>
+    <t>Value 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Zero Field Angle</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>zero_field_angle</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +147,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5187 +463,5329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Magnetic Field voltage (V)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Magnetic Field Current (Amps)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Filter</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sample (cm)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Min transmission angle</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Value 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Value 2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Value 3</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 4</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Value 4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Value 5</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 6</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Value 6</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 7</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Value 7</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 8</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Value 8</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Angle 9</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Value 9</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>zero_field_angle</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:29">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
         <v>1.036</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>334</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>294</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.0315</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>304</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.0205</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>314</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0.0112</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>324</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>0.00375</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>334</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>0.0005</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>344</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>0.0025</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>354</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>0.0076</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>364</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>0.017</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>374</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>0.03</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="AB2">
+        <v>0.00101</v>
+      </c>
+      <c r="AC2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
         <v>0.956</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>332</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>292</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0426</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>302</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0271</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>312</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>0.0121</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>322</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>0.00544</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>332</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>0.00217</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>342</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>0.00275</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>352</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>0.00672</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>362</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>0.0137</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>372</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>0.0214</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="AB3">
+        <v>0.00269</v>
+      </c>
+      <c r="AC3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>1.272</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>339</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>299</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0223</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>309</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0134</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>319</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>0.00591</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>329</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>0.00176</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>339</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>0.00123</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>349</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>0.00447</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>359</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>0.0108</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>369</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>0.0186</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>379</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>0.0275</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="AB4">
+        <v>0.00211</v>
+      </c>
+      <c r="AC4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
         <v>1.272</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>332</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>292</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.0526</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>302</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0378</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>312</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>0.0223</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>322</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>0.0114</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>332</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>0.000521</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>342</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>0.00696</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>352</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>0.0158</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>362</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>0.03</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>372</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>0.0457</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="AB5">
+        <v>0.00517</v>
+      </c>
+      <c r="AC5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
         <v>0.956</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>340</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.0548</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>310</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0359</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>320</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>0.0187</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>330</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>0.008149999999999999</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>340</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>0.00714</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>350</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>0.0162</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>360</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>0.0324</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>370</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>0.0508</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>380</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>0.0646</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="AB6">
+        <v>0.00729</v>
+      </c>
+      <c r="AC6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
         <v>1.036</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>337</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>297</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.0433</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>307</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0293</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>317</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.0146</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>327</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>0.0048</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>337</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>0.0019</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>347</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>0.00627</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>357</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>0.0179</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>367</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>0.0317</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>377</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>0.0455</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="AB7">
+        <v>0.00105</v>
+      </c>
+      <c r="AC7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>1.036</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>335</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>295</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.0329</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>305</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0221</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>315</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>0.0114</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>325</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>0.00403</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>335</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>0.00151</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>345</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>0.0034</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>355</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>0.0107</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>365</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>0.02</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>375</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>0.0313</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="AB8">
+        <v>0.00101</v>
+      </c>
+      <c r="AC8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
         <v>0.956</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>334</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>294</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.0447</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>304</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.031</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>314</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>0.0179</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>324</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>0.008059999999999999</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>334</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>0.00371</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>344</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>0.0057</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>354</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>0.0131</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>364</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>0.0246</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>374</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>0.0387</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="AB9">
+        <v>0.00431</v>
+      </c>
+      <c r="AC9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
         <v>1.272</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>340</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>300</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.0332</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>310</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0203</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>320</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.01</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>330</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>0.00322</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>340</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>0.00256</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>350</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>0.00775</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>360</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>0.0174</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>370</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>0.0298</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>380</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>0.0417</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="AB10">
+        <v>0.00228</v>
+      </c>
+      <c r="AC10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.41</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
         <v>0.956</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>335</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>295</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.0406</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>305</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.0276</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>315</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>0.0148</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>325</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>0.0052</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>335</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>0.00135</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>345</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>0.00406</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>355</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>0.0132</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>365</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>0.0263</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>375</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>0.0393</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="AB11">
+        <v>0.0038</v>
+      </c>
+      <c r="AC11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.41</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
         <v>1.272</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>336</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>296</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.0327</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>306</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>0.0216</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>316</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>0.0102</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>326</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>0.0036</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>336</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>0.00182</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>346</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>0.00614</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>356</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>0.0152</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>366</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>0.0276</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>376</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>0.0405</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="AB12">
+        <v>0.0021</v>
+      </c>
+      <c r="AC12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.41</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
         <v>1.036</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>340</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>300</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.0318</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>310</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>0.0205</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>320</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>0.105</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>330</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>0.00367</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>340</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>0.0008079</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>350</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>0.00343</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>360</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>0.0107</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>370</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>0.0218</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>380</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>0.0331</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="AB13">
+        <v>0.00178</v>
+      </c>
+      <c r="AC13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.41</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
         <v>1.036</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>339</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>299</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.0182</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>309</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.0114</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>319</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>0.00609</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>329</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>0.00191</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>339</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>0.0006579999999999999</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>349</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>0.00218</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>359</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>0.00626</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>369</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>0.0124</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>379</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>0.0187</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="AB14">
+        <v>0.0012</v>
+      </c>
+      <c r="AC14">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.41</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>0.956</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>333</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>293</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.0295</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>303</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.0196</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>313</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>0.0119</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>323</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>0.00535</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>333</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>0.00209</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>343</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>0.00262</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>353</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>0.00708</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>363</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>0.0142</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>373</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>0.0232</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="AB15">
+        <v>0.00207</v>
+      </c>
+      <c r="AC15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.41</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
         <v>1.272</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>333</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>293</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.0281</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>303</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.019</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>313</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>0.0105</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>323</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>0.00399</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>333</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>0.00135</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>343</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>0.00248</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>353</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>0.0074</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>363</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>0.015</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>373</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>0.0243</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="AB16">
+        <v>0.00133</v>
+      </c>
+      <c r="AC16">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.41</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
         <v>0.956</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>336</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>296</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.0498</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>306</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.0334</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>316</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>0.0203</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>326</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>0.00988</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>336</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>0.00546</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>346</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>0.00907</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>356</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>0.0202</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>366</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>0.0331</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>376</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>0.0447</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="AB17">
+        <v>0.00338</v>
+      </c>
+      <c r="AC17">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.41</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
         <v>1.272</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>334</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>294</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.0372</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>304</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.0247</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>314</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>0.0124</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>324</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>0.00427</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>334</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>0.0023</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>344</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>0.00616</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>354</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>0.0177</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>364</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>0.0278</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>374</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>0.0413</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="AB18">
+        <v>0.00323</v>
+      </c>
+      <c r="AC18">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.41</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
         <v>1.036</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>335</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>295</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.0467</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>305</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.0339</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>315</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>0.0214</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>325</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>0.0097</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>335</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>0.00295</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>345</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>0.00118</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>355</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>0.0053</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>365</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>0.0145</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>375</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>0.0267</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="AB19">
+        <v>0.00289</v>
+      </c>
+      <c r="AC19">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.82</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
         <v>1.036</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>332</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>292</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.0577</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>302</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.0479</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>312</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>0.0361</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>322</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>0.0231</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>332</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>0.0114</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>342</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>0.00369</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>352</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>0.00158</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>362</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>0.00563</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>372</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>0.0148</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="AB20">
+        <v>0.00748</v>
+      </c>
+      <c r="AC20">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.82</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
         <v>1.272</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>333</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>293</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.0345</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>303</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.02146</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>313</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>0.0105</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>323</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>0.00378</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>333</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>0.00309</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>343</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>0.00861</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>353</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>0.0187</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>363</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>0.0316</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>373</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>0.0445</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="AB21">
+        <v>0.0037</v>
+      </c>
+      <c r="AC21">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.82</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
         <v>0.956</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>335</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>295</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.0499</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>305</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.0361</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>315</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>0.0207</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>325</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>0.0107</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>335</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>0.00659</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>345</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>0.00996</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>355</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>0.02</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>365</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>0.0349</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>375</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>0.0488</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="AB22">
+        <v>0.00502</v>
+      </c>
+      <c r="AC22">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.82</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
         <v>0.956</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>331</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>291</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.0382</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>301</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.0258</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>311</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>0.0159</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>321</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>0.00777</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>331</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>0.00321</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>341</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>0.00318</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>351</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>0.00772</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>361</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>0.016</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>371</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>0.0264</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="AB23">
+        <v>0.00328</v>
+      </c>
+      <c r="AC23">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.82</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
         <v>1.272</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>337</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>297</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.0282</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>307</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.01681</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>317</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>0.00777</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>327</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>0.0023</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>337</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>0.00145</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>347</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>0.00488</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>357</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>0.0141</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>367</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>0.025</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>377</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>0.0363</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="AB24">
+        <v>0.00182</v>
+      </c>
+      <c r="AC24">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.82</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
         <v>1.036</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>340</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>300</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.0281</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>310</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.0187</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>320</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>0.01</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>330</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>0.00372</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>340</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>0.0009990000000000001</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>350</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>0.00188</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>360</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>0.00657</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>370</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>0.0141</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>380</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>0.023</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="AB25">
+        <v>0.00343</v>
+      </c>
+      <c r="AC25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>20</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.82</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
         <v>1.036</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>346</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>306</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.0431</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>316</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>0.0288</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>326</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>0.01395</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>336</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>0.00414</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>346</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>0.00114</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>356</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>0.00603</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>366</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>0.0166</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>376</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26">
         <v>0.0308</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>386</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>0.0458</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="AB26">
+        <v>0.00421</v>
+      </c>
+      <c r="AC26">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>20</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.82</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
         <v>1.272</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>332</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>292</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.0523</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>302</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.0355</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>312</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>0.0186</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>322</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>0.007</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>332</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>0.00244</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>342</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>0.00682</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>352</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>0.0188</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>362</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>0.0355</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>372</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>0.0513</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="AB27">
+        <v>0.00273</v>
+      </c>
+      <c r="AC27">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.82</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
         <v>0.956</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>336</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>296</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.0544</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>306</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.0389</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>316</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>0.0223</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>326</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>0.00992</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>336</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>0.00554</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>346</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>0.0103</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>356</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>0.0224</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>366</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>0.0398</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>376</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>0.0548</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="AB28">
+        <v>0.00315</v>
+      </c>
+      <c r="AC28">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>30</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.23</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
         <v>0.956</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>338</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>298</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.0508</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>308</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.0341</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>318</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>0.0184</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>328</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>0.0075</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>338</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>0.00533</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>348</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>0.0122</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>358</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>0.0264</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>368</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29">
         <v>0.0429</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>378</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29">
         <v>0.0585</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="AB29">
+        <v>0.00378</v>
+      </c>
+      <c r="AC29">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>30</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.23</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
         <v>1.272</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>328</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>288</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.0541</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>298</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.0385</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>308</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>0.0222</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>318</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>0.008869999999999999</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>328</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>0.00278</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>338</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>0.00555</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>348</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>0.0165</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>358</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>0.0318</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>368</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>0.0473</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="AB30">
+        <v>0.00349</v>
+      </c>
+      <c r="AC30">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.23</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
         <v>1.036</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>350</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>310</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.0431</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>320</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.0285</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>330</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>0.01446</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>340</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>0.0045</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>350</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>0.001447</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>360</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>0.00548</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>370</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>0.0161</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>380</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31">
         <v>0.0307</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>390</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31">
         <v>0.0442</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="AB31">
+        <v>0.00658</v>
+      </c>
+      <c r="AC31">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.23</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
         <v>1.036</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>347</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>307</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.0302</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>317</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.0176</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>327</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>0.008880000000000001</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>337</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>0.0027</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>347</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>0.00102</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>357</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>0.00438</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>367</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>0.01264</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>377</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32">
         <v>0.0229</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>387</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>0.0334</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="AB32">
+        <v>0.00299</v>
+      </c>
+      <c r="AC32">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.23</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33">
         <v>0.956</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>336</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>296</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.0387</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>306</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.0253</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>316</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>0.0134</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>326</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>0.00552</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>336</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>0.00283</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>346</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>0.00684</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>356</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>0.0157</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>366</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W33">
         <v>0.028</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33">
         <v>376</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33">
         <v>0.041</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="AB33">
+        <v>0.0021</v>
+      </c>
+      <c r="AC33">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.23</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34">
         <v>1.272</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>333</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>293</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.0363</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>303</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.0234</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>313</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>0.0125</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>323</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>0.00406</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>333</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>0.001471</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>343</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>0.00555</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>353</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>0.0143</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>363</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W34">
         <v>0.0272</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34">
         <v>373</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34">
         <v>0.0399</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="AB34">
+        <v>0.00131</v>
+      </c>
+      <c r="AC34">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>30</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.23</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
         <v>0.956</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>337</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>297</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.0458</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>307</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.03112</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>317</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>0.0172</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>327</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>0.00844</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>337</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>0.007</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>347</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>0.0135</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>357</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>0.0258</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35">
         <v>367</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35">
         <v>0.0407</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35">
         <v>377</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35">
         <v>0.0538</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="AB35">
+        <v>0.00492</v>
+      </c>
+      <c r="AC35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.23</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36">
         <v>1.272</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>322</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>282</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.0471</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>292</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.0337</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>302</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>0.0203</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>312</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>0.00954</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>322</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>0.0038</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>332</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>0.00488</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36">
         <v>342</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>0.0122</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36">
         <v>352</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36">
         <v>0.0237</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36">
         <v>362</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36">
         <v>0.0382</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="AB36">
+        <v>0.00444</v>
+      </c>
+      <c r="AC36">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>30</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.23</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
         <v>1.036</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>358</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>318</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.037</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>328</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.0245</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>338</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>0.0121</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>348</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>0.00377</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>358</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>0.00121</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>368</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>0.00445</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>378</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>0.0139</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37">
         <v>388</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37">
         <v>0.0256</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37">
         <v>398</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37">
         <v>0.0383</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="AB37">
+        <v>0.013</v>
+      </c>
+      <c r="AC37">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-10</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>-0.41</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
         <v>0.956</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>337</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>297</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.0504</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>307</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>0.0333</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>317</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>0.0167</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>327</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>0.00533</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>337</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>0.00235</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>347</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>0.00889</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38">
         <v>357</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38">
         <v>0.0233</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38">
         <v>367</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W38">
         <v>0.0402</v>
       </c>
-      <c r="X38" t="n">
+      <c r="X38">
         <v>377</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y38">
         <v>0.0549</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="AB38">
+        <v>0.00494</v>
+      </c>
+      <c r="AC38">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-10</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>-0.41</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
         <v>1.272</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>340</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>300</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.0437</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>310</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.0275</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>320</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>0.015</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>330</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>0.0064</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>340</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>0.00414</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>350</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>0.00882</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39">
         <v>360</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>0.0184</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V39">
         <v>370</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W39">
         <v>0.0329</v>
       </c>
-      <c r="X39" t="n">
+      <c r="X39">
         <v>380</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y39">
         <v>0.0457</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="AB39">
+        <v>0.00343</v>
+      </c>
+      <c r="AC39">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-10</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-0.41</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
         <v>1.036</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>334</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>294</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.0324</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>304</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.0191</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>314</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>0.00775</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>324</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>0.00168</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>334</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>0.00189</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>344</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>0.008240000000000001</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40">
         <v>354</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40">
         <v>0.0186</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40">
         <v>364</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W40">
         <v>0.0316</v>
       </c>
-      <c r="X40" t="n">
+      <c r="X40">
         <v>374</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y40">
         <v>0.0446</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="AB40">
+        <v>0.00219</v>
+      </c>
+      <c r="AC40">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-10</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>-0.41</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
         <v>1.036</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>331</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>291</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.0377</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>301</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.0246</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>311</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>0.0134</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>321</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>0.00572</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>331</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>0.00112</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>341</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41">
         <v>0.00396</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41">
         <v>351</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U41">
         <v>0.013</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V41">
         <v>361</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W41">
         <v>0.0242</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X41">
         <v>371</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y41">
         <v>0.0371</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="AB41">
+        <v>0.00189</v>
+      </c>
+      <c r="AC41">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-10</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>-0.41</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42">
         <v>0.956</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>338</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>298</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.0468</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>308</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.0308</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>318</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>0.0158</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>328</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>0.00595</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42">
         <v>338</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42">
         <v>0.00356</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>348</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>0.0105</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42">
         <v>358</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U42">
         <v>0.0235</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V42">
         <v>368</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W42">
         <v>0.0395</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X42">
         <v>378</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y42">
         <v>0.0536</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="AB42">
+        <v>0.00452</v>
+      </c>
+      <c r="AC42">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-10</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>-0.41</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43">
         <v>1.272</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>338</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>298</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.0461</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>308</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>0.0312</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>318</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>0.0159</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>328</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>0.00551</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>338</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>0.00118</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>348</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43">
         <v>0.00624</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43">
         <v>358</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U43">
         <v>0.0177</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V43">
         <v>368</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W43">
         <v>0.0313</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X43">
         <v>378</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y43">
         <v>0.0474</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="AB43">
+        <v>0.00258</v>
+      </c>
+      <c r="AC43">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-10</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>-0.41</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44">
         <v>1.272</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>338</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>298</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.0278</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>308</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.0175</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>318</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>0.00903</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>328</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>0.00309</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>338</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44">
         <v>0.00133</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>348</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44">
         <v>0.00374</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44">
         <v>358</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44">
         <v>0.01</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44">
         <v>368</v>
       </c>
-      <c r="W44" t="n">
+      <c r="W44">
         <v>0.0194</v>
       </c>
-      <c r="X44" t="n">
+      <c r="X44">
         <v>378</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Y44">
         <v>0.03</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="AB44">
+        <v>0.00116</v>
+      </c>
+      <c r="AC44">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-10</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>-0.41</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45">
         <v>0.956</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>331</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>291</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.0338</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>301</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.0235</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>311</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>0.014</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>321</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>0.00646</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>331</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45">
         <v>0.00238</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>341</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45">
         <v>0.00255</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45">
         <v>351</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U45">
         <v>0.00638</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V45">
         <v>361</v>
       </c>
-      <c r="W45" t="n">
+      <c r="W45">
         <v>0.0146</v>
       </c>
-      <c r="X45" t="n">
+      <c r="X45">
         <v>371</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y45">
         <v>0.0233</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="AB45">
+        <v>0.00157</v>
+      </c>
+      <c r="AC45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-10</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>-0.41</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46">
         <v>1.036</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>332</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>292</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.0231</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>302</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>0.0149</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>312</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>0.007939999999999999</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>322</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>0.00275</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>332</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46">
         <v>0.00679</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>342</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46">
         <v>0.00198</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46">
         <v>352</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U46">
         <v>0.00627</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V46">
         <v>362</v>
       </c>
-      <c r="W46" t="n">
+      <c r="W46">
         <v>0.013</v>
       </c>
-      <c r="X46" t="n">
+      <c r="X46">
         <v>372</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y46">
         <v>0.021</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="AB46">
+        <v>0.000695</v>
+      </c>
+      <c r="AC46">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-20</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47">
         <v>1.036</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>330</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>290</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.0232</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>300</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>0.0148</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>310</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>0.0074</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>320</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>0.00252</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>330</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>0.000777</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>340</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S47">
         <v>0.00242</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47">
         <v>350</v>
       </c>
-      <c r="U47" t="n">
+      <c r="U47">
         <v>0.00707</v>
       </c>
-      <c r="V47" t="n">
+      <c r="V47">
         <v>360</v>
       </c>
-      <c r="W47" t="n">
+      <c r="W47">
         <v>0.0145</v>
       </c>
-      <c r="X47" t="n">
+      <c r="X47">
         <v>370</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y47">
         <v>0.0224</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47">
         <v>335.2749258914456</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="AB47">
+        <v>0.001</v>
+      </c>
+      <c r="AC47">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-20</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48">
         <v>0.956</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>336</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>296</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.0277</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>306</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>0.0199</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>316</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>0.0108</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>326</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>0.00444</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>336</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>0.00217</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>346</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48">
         <v>0.00413</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T48">
         <v>356</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U48">
         <v>0.0101</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V48">
         <v>366</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W48">
         <v>0.0189</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X48">
         <v>376</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y48">
         <v>0.0292</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="AB48">
+        <v>0.000992</v>
+      </c>
+      <c r="AC48">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-20</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49">
         <v>1.272</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>339</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>299</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.03</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>309</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.0195</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>319</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>0.009520000000000001</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>329</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>0.00343</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49">
         <v>339</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49">
         <v>0.0012</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>349</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49">
         <v>0.0035</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T49">
         <v>359</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U49">
         <v>0.0101</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V49">
         <v>369</v>
       </c>
-      <c r="W49" t="n">
+      <c r="W49">
         <v>0.0192</v>
       </c>
-      <c r="X49" t="n">
+      <c r="X49">
         <v>379</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y49">
         <v>0.0299</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="AB49">
+        <v>0.00136</v>
+      </c>
+      <c r="AC49">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-20</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
         <v>0.956</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>337</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>297</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.0435</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>307</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.0299</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>317</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>0.0161</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>327</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>0.00748</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50">
         <v>337</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50">
         <v>0.00499</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50">
         <v>347</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S50">
         <v>0.00932</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T50">
         <v>357</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U50">
         <v>0.0195</v>
       </c>
-      <c r="V50" t="n">
+      <c r="V50">
         <v>367</v>
       </c>
-      <c r="W50" t="n">
+      <c r="W50">
         <v>0.0337</v>
       </c>
-      <c r="X50" t="n">
+      <c r="X50">
         <v>377</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Y50">
         <v>0.0474</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="AB50">
+        <v>0.00882</v>
+      </c>
+      <c r="AC50">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-20</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
         <v>1.272</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>344</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>304</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.0369</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>314</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.0232</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>324</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>0.0123</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>334</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>0.00495</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51">
         <v>344</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51">
         <v>0.00347</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>354</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51">
         <v>0.00772</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T51">
         <v>364</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U51">
         <v>0.0171</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V51">
         <v>374</v>
       </c>
-      <c r="W51" t="n">
+      <c r="W51">
         <v>0.0297</v>
       </c>
-      <c r="X51" t="n">
+      <c r="X51">
         <v>384</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Y51">
         <v>0.0394</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="AB51">
+        <v>0.00809</v>
+      </c>
+      <c r="AC51">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-20</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
         <v>1.036</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>320</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>280</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.0379</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>290</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>0.0258</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>300</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>0.0144</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>310</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>0.00607</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52">
         <v>320</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52">
         <v>0.00214</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R52">
         <v>330</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S52">
         <v>0.00407</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T52">
         <v>340</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U52">
         <v>0.0107</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V52">
         <v>350</v>
       </c>
-      <c r="W52" t="n">
+      <c r="W52">
         <v>0.0215</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X52">
         <v>360</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y52">
         <v>0.033</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="AB52">
+        <v>0.009650000000000001</v>
+      </c>
+      <c r="AC52">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-20</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
         <v>1.036</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>326</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>286</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.0461</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>296</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>0.0316</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>306</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>0.0172</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>316</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>0.00657</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53">
         <v>326</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53">
         <v>0.00202</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53">
         <v>336</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S53">
         <v>0.00515</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T53">
         <v>346</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U53">
         <v>0.0142</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V53">
         <v>356</v>
       </c>
-      <c r="W53" t="n">
+      <c r="W53">
         <v>0.0282</v>
       </c>
-      <c r="X53" t="n">
+      <c r="X53">
         <v>366</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y53">
         <v>0.0428</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="AB53">
+        <v>0.00379</v>
+      </c>
+      <c r="AC53">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-20</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54">
         <v>0.956</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>339</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>299</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.0519</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>309</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>0.035</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>319</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>0.0168</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>329</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>0.00483</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>339</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54">
         <v>0.00247</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54">
         <v>349</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54">
         <v>0.00971</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T54">
         <v>359</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U54">
         <v>0.0259</v>
       </c>
-      <c r="V54" t="n">
+      <c r="V54">
         <v>369</v>
       </c>
-      <c r="W54" t="n">
+      <c r="W54">
         <v>0.0443</v>
       </c>
-      <c r="X54" t="n">
+      <c r="X54">
         <v>379</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Y54">
         <v>0.0607</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="AB54">
+        <v>0.00453</v>
+      </c>
+      <c r="AC54">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-20</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
         <v>1.272</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>341</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>301</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.0531</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>311</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>0.0362</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>321</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>0.0196</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>331</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>0.00729</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55">
         <v>341</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55">
         <v>0.00292</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55">
         <v>351</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S55">
         <v>0.008189999999999999</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T55">
         <v>361</v>
       </c>
-      <c r="U55" t="n">
+      <c r="U55">
         <v>0.0213</v>
       </c>
-      <c r="V55" t="n">
+      <c r="V55">
         <v>371</v>
       </c>
-      <c r="W55" t="n">
+      <c r="W55">
         <v>0.0377</v>
       </c>
-      <c r="X55" t="n">
+      <c r="X55">
         <v>381</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Y55">
         <v>0.0541</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="AB55">
+        <v>0.00254</v>
+      </c>
+      <c r="AC55">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-30</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>-1.22</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56">
         <v>0.956</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>337</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>297</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.0548</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>307</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>0.0378</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>317</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>0.021</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>327</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56">
         <v>0.008319999999999999</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56">
         <v>337</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56">
         <v>0.00384</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56">
         <v>347</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S56">
         <v>0.008999999999999999</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T56">
         <v>357</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U56">
         <v>0.0227</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V56">
         <v>367</v>
       </c>
-      <c r="W56" t="n">
+      <c r="W56">
         <v>0.0401</v>
       </c>
-      <c r="X56" t="n">
+      <c r="X56">
         <v>377</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Y56">
         <v>0.0562</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56">
         <v>336.131701637814</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="AB56">
+        <v>0.00478</v>
+      </c>
+      <c r="AC56">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-30</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>-1.22</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57">
         <v>1.272</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>343</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>303</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.0506</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>313</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>0.0337</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>323</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>0.0173</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>333</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>0.00582</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57">
         <v>343</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57">
         <v>0.00217</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R57">
         <v>353</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S57">
         <v>0.007849999999999999</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T57">
         <v>363</v>
       </c>
-      <c r="U57" t="n">
+      <c r="U57">
         <v>0.0214</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V57">
         <v>373</v>
       </c>
-      <c r="W57" t="n">
+      <c r="W57">
         <v>0.0374</v>
       </c>
-      <c r="X57" t="n">
+      <c r="X57">
         <v>383</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Y57">
         <v>0.0536</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57">
         <v>336.54722588931</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="AB57">
+        <v>0.00384</v>
+      </c>
+      <c r="AC57">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-30</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>-1.22</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58">
         <v>1.036</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>320</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>280</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.0475</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>290</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>0.0333</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>300</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>0.019</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>310</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58">
         <v>0.00804</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58">
         <v>320</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58">
         <v>0.00219</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R58">
         <v>330</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S58">
         <v>0.00399</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T58">
         <v>340</v>
       </c>
-      <c r="U58" t="n">
+      <c r="U58">
         <v>0.0125</v>
       </c>
-      <c r="V58" t="n">
+      <c r="V58">
         <v>350</v>
       </c>
-      <c r="W58" t="n">
+      <c r="W58">
         <v>0.0257</v>
       </c>
-      <c r="X58" t="n">
+      <c r="X58">
         <v>360</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Y58">
         <v>0.0398</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58">
         <v>335.6961290684387</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="AB58">
+        <v>0.00427</v>
+      </c>
+      <c r="AC58">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-30</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>-1.22</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
         <v>0.956</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>336</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>296</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.0392</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>306</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>0.0268</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>316</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>0.0158</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>326</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59">
         <v>0.0078</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59">
         <v>336</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59">
         <v>0.00453</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59">
         <v>346</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S59">
         <v>0.00721</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T59">
         <v>356</v>
       </c>
-      <c r="U59" t="n">
+      <c r="U59">
         <v>0.0139</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V59">
         <v>366</v>
       </c>
-      <c r="W59" t="n">
+      <c r="W59">
         <v>0.0242</v>
       </c>
-      <c r="X59" t="n">
+      <c r="X59">
         <v>376</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Y59">
         <v>0.0356</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59">
         <v>336.576889640291</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="AB59">
+        <v>0.0063</v>
+      </c>
+      <c r="AC59">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-30</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>-1.22</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60">
         <v>1.272</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>346</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>306</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.021</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>316</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>0.0139</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>326</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>0.00695</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60">
         <v>336</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>0.00251</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60">
         <v>346</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60">
         <v>0.00136</v>
       </c>
-      <c r="R60" t="n">
+      <c r="R60">
         <v>356</v>
       </c>
-      <c r="S60" t="n">
+      <c r="S60">
         <v>0.0036</v>
       </c>
-      <c r="T60" t="n">
+      <c r="T60">
         <v>366</v>
       </c>
-      <c r="U60" t="n">
+      <c r="U60">
         <v>0.00878</v>
       </c>
-      <c r="V60" t="n">
+      <c r="V60">
         <v>376</v>
       </c>
-      <c r="W60" t="n">
+      <c r="W60">
         <v>0.0157</v>
       </c>
-      <c r="X60" t="n">
+      <c r="X60">
         <v>386</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Y60">
         <v>0.0234</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60">
         <v>334.2244603817874</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="AB60">
+        <v>0.01</v>
+      </c>
+      <c r="AC60">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-30</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>-1.22</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
         <v>1.036</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>313</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>273</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.0532</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>283</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>0.0379</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>293</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>0.0206</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>303</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61">
         <v>0.00753</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61">
         <v>313</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61">
         <v>0.00188</v>
       </c>
-      <c r="R61" t="n">
+      <c r="R61">
         <v>323</v>
       </c>
-      <c r="S61" t="n">
+      <c r="S61">
         <v>0.00499</v>
       </c>
-      <c r="T61" t="n">
+      <c r="T61">
         <v>333</v>
       </c>
-      <c r="U61" t="n">
+      <c r="U61">
         <v>0.016</v>
       </c>
-      <c r="V61" t="n">
+      <c r="V61">
         <v>343</v>
       </c>
-      <c r="W61" t="n">
+      <c r="W61">
         <v>0.031</v>
       </c>
-      <c r="X61" t="n">
+      <c r="X61">
         <v>353</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Y61">
         <v>0.0468</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61">
         <v>336.1480069853951</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="AB61">
+        <v>0.0163</v>
+      </c>
+      <c r="AC61">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-30</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>-1.22</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62">
         <v>0.956</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>341</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>301</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.023</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>311</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>0.0133</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>321</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>0.00721</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>331</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>0.00285</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62">
         <v>341</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62">
         <v>0.00238</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62">
         <v>351</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S62">
         <v>0.00615</v>
       </c>
-      <c r="T62" t="n">
+      <c r="T62">
         <v>361</v>
       </c>
-      <c r="U62" t="n">
+      <c r="U62">
         <v>0.0129</v>
       </c>
-      <c r="V62" t="n">
+      <c r="V62">
         <v>371</v>
       </c>
-      <c r="W62" t="n">
+      <c r="W62">
         <v>0.0222</v>
       </c>
-      <c r="X62" t="n">
+      <c r="X62">
         <v>381</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Y62">
         <v>0.0313</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62">
         <v>338.2878403828215</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="AB62">
+        <v>0.00293</v>
+      </c>
+      <c r="AC62">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-30</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>-1.22</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63">
         <v>1.272</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>340</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>300</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.0249</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>310</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>0.0156</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>320</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>0.007939999999999999</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>330</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63">
         <v>0.00199</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63">
         <v>340</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63">
         <v>0.0009840000000000001</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R63">
         <v>350</v>
       </c>
-      <c r="S63" t="n">
+      <c r="S63">
         <v>0.00202</v>
       </c>
-      <c r="T63" t="n">
+      <c r="T63">
         <v>360</v>
       </c>
-      <c r="U63" t="n">
+      <c r="U63">
         <v>0.00608</v>
       </c>
-      <c r="V63" t="n">
+      <c r="V63">
         <v>370</v>
       </c>
-      <c r="W63" t="n">
+      <c r="W63">
         <v>0.0118</v>
       </c>
-      <c r="X63" t="n">
+      <c r="X63">
         <v>380</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Y63">
         <v>0.0194</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63">
         <v>335.9579153280217</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="AB63">
+        <v>0.00234</v>
+      </c>
+      <c r="AC63">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-30</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>-1.22</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64">
         <v>1.036</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>328</v>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>288</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.0165</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>298</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>0.0101</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>308</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>0.00498</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>318</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>0.00164</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>328</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64">
         <v>0.000613</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64">
         <v>338</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S64">
         <v>0.00209</v>
       </c>
-      <c r="T64" t="n">
+      <c r="T64">
         <v>348</v>
       </c>
-      <c r="U64" t="n">
+      <c r="U64">
         <v>0.00577</v>
       </c>
-      <c r="V64" t="n">
+      <c r="V64">
         <v>358</v>
       </c>
-      <c r="W64" t="n">
+      <c r="W64">
         <v>0.0111</v>
       </c>
-      <c r="X64" t="n">
+      <c r="X64">
         <v>368</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Y64">
         <v>0.0175</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64">
         <v>335.2749258914456</v>
       </c>
+      <c r="AB64">
+        <v>0.00269</v>
+      </c>
+      <c r="AC64">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>